--- a/Suites/Pontuacoes/CAF/01_CopaAfricana_FaseEliminatorias.xlsx
+++ b/Suites/Pontuacoes/CAF/01_CopaAfricana_FaseEliminatorias.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Guiné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convidado1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convidado2</t>
   </si>
 </sst>
 </file>
@@ -202,7 +196,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
@@ -210,8 +204,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,58 +596,6 @@
       </c>
       <c r="H15" s="2" t="n">
         <v>-4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>-8</v>
       </c>
     </row>
   </sheetData>
